--- a/صيدليات دكتور مصطفي طلعت_2026-01-01_08-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-01_08-47.xlsx
@@ -39,6 +39,24 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>Thursday, 1 January, 2026 8:47 AM</t>
@@ -263,10 +281,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -275,7 +293,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -684,21 +702,33 @@
         <v>0</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>10</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>11</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>12</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>13</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>14</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="N8" s="13"/>
@@ -708,7 +738,7 @@
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -716,13 +746,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
